--- a/swot/EMQ and ActiveMQ.xlsx
+++ b/swot/EMQ and ActiveMQ.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rockyjin/Downloads/EMQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xyz361/Desktop/EMQ/与其它MQ对比/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9704B95-C30C-C248-8C56-7EAFE2828A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="460" windowWidth="32220" windowHeight="21260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>团队</t>
   </si>
@@ -74,26 +75,6 @@
   </si>
   <si>
     <t>ActiveMQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开源+商业版</t>
-    <rPh sb="0" eb="1">
-      <t>kai'y</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shang'ye</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ban</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开源</t>
-    <rPh sb="0" eb="1">
-      <t>kai'y</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,16 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开源协议</t>
-    <rPh sb="0" eb="1">
-      <t>kai y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xie yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2012年开始开源，2016年开始商业化，迭代 100+ 版本</t>
     <rPh sb="4" eb="5">
       <t>nian</t>
@@ -620,10 +591,6 @@
     <rPh sb="9" eb="10">
       <t>wei hu zhe</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apache License 2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -815,12 +782,32 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>开源（Apache License 2.0）+商业版</t>
+    <rPh sb="0" eb="1">
+      <t>kai'y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shang'ye</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源（Apache License 2.0）</t>
+    <rPh sb="0" eb="1">
+      <t>kai'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -954,6 +941,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1221,21 +1211,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="64.1640625" customWidth="1"/>
     <col min="3" max="3" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="21">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>13</v>
@@ -1246,221 +1236,208 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="58" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="40" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="73" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="90" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
+    <row r="16" spans="1:5" ht="21">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="21">
       <c r="A17" s="4"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="21">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1470,49 +1447,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1520,22 +1497,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
